--- a/datasets_single/kpcb_caz_avi_powder_fix4.xlsx
+++ b/datasets_single/kpcb_caz_avi_powder_fix4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130F2E81-7288-DA44-B749-A759C69C9FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC78429-F74D-BD49-B91D-50C28E50CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
